--- a/StructureDefinition-openimis-invoice.xlsx
+++ b/StructureDefinition-openimis-invoice.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-12T15:53:21+00:00</t>
+    <t>2021-11-12T16:19:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1266,9 +1266,9 @@
   </si>
   <si>
     <t>* quantity only for the base
-      * rate for tax 
-      * discount for discount
-      * 1 for deduction</t>
+* rate for tax 
+* discount for discount
+* 1 for deduction</t>
   </si>
   <si>
     <t>There is no reason to carry the price in the instance of a ChargeItem unless circumstances require a manual override. The list prices or are usually defined in a back catalogue of the billing codes  (see ChargeItem.definition). Derived profiles may require a ChargeItem.overrideReason to be provided if either factor or price are manually overridden.</t>
@@ -1288,9 +1288,9 @@
   </si>
   <si>
     <t>* unit_price*quantity only for the base
-      * (unit_price*quantity*(1-discount)-deduction)*rate for tax
-      * -1*unit_price*quantity*discount for discount
-      * -1*deduction for deduction</t>
+* (unit_price*quantity*(1-discount)-deduction)*rate for tax
+* -1*unit_price*quantity*discount for discount
+* -1*deduction for deduction</t>
   </si>
   <si>
     <t>Invoice.lineItem.priceComponent.amount.id</t>

--- a/StructureDefinition-openimis-invoice.xlsx
+++ b/StructureDefinition-openimis-invoice.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-12T16:19:51+00:00</t>
+    <t>2021-11-12T16:20:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-invoice.xlsx
+++ b/StructureDefinition-openimis-invoice.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$131</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$132</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4619" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4652" uniqueCount="463">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-12T16:20:31+00:00</t>
+    <t>2021-11-15T18:47:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1196,6 +1196,29 @@
   </si>
   <si>
     <t>Invoice.lineItem.priceComponent.extension</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t>unitPrice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://openimis.github.io/openimis_fhir_r4_ig/StructureDefinition/unit-price}
+</t>
+  </si>
+  <si>
+    <t>Unit Price</t>
+  </si>
+  <si>
+    <t>Specifies the lineItem unit price.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
   </si>
   <si>
     <t>Invoice.lineItem.priceComponent.modifierExtension</t>
@@ -1747,7 +1770,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM131"/>
+  <dimension ref="A1:AM132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -12568,11 +12591,11 @@
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
-        <v>128</v>
+        <v>74</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F98" t="s" s="2">
         <v>76</v>
@@ -12590,14 +12613,12 @@
         <v>129</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>130</v>
+        <v>382</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="M98" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>383</v>
+      </c>
+      <c r="M98" s="2"/>
       <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
         <v>74</v>
@@ -12634,16 +12655,14 @@
         <v>74</v>
       </c>
       <c r="AA98" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB98" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="AB98" s="2"/>
       <c r="AC98" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD98" t="s" s="2">
-        <v>74</v>
+        <v>160</v>
       </c>
       <c r="AE98" t="s" s="2">
         <v>161</v>
@@ -12664,7 +12683,7 @@
         <v>74</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>155</v>
+        <v>74</v>
       </c>
       <c r="AL98" t="s" s="2">
         <v>74</v>
@@ -12675,43 +12694,41 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="B99" s="2"/>
+        <v>381</v>
+      </c>
+      <c r="B99" t="s" s="2">
+        <v>384</v>
+      </c>
       <c r="C99" t="s" s="2">
-        <v>337</v>
+        <v>74</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F99" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G99" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H99" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="I99" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>129</v>
+        <v>385</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>338</v>
+        <v>386</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="M99" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N99" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="M99" s="2"/>
+      <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
         <v>74</v>
       </c>
@@ -12759,7 +12776,7 @@
         <v>74</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>340</v>
+        <v>161</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>75</v>
@@ -12768,7 +12785,7 @@
         <v>76</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>74</v>
+        <v>388</v>
       </c>
       <c r="AI99" t="s" s="2">
         <v>134</v>
@@ -12777,7 +12794,7 @@
         <v>74</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>126</v>
+        <v>74</v>
       </c>
       <c r="AL99" t="s" s="2">
         <v>74</v>
@@ -12788,39 +12805,43 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
-        <v>74</v>
+        <v>337</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F100" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G100" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H100" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="I100" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>384</v>
+        <v>338</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="M100" s="2"/>
-      <c r="N100" s="2"/>
+        <v>339</v>
+      </c>
+      <c r="M100" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="N100" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="O100" t="s" s="2">
         <v>74</v>
       </c>
@@ -12844,11 +12865,13 @@
         <v>74</v>
       </c>
       <c r="W100" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="X100" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="X100" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Y100" t="s" s="2">
-        <v>386</v>
+        <v>74</v>
       </c>
       <c r="Z100" t="s" s="2">
         <v>74</v>
@@ -12866,36 +12889,36 @@
         <v>74</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>383</v>
+        <v>340</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH100" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI100" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>295</v>
+        <v>74</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>296</v>
+        <v>126</v>
       </c>
       <c r="AL100" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>298</v>
+        <v>74</v>
       </c>
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -12903,7 +12926,7 @@
       </c>
       <c r="D101" s="2"/>
       <c r="E101" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F101" t="s" s="2">
         <v>83</v>
@@ -12918,13 +12941,13 @@
         <v>74</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>173</v>
+        <v>103</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="M101" s="2"/>
       <c r="N101" s="2"/>
@@ -12951,13 +12974,11 @@
         <v>74</v>
       </c>
       <c r="W101" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X101" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="X101" s="2"/>
       <c r="Y101" t="s" s="2">
-        <v>74</v>
+        <v>393</v>
       </c>
       <c r="Z101" t="s" s="2">
         <v>74</v>
@@ -12975,10 +12996,10 @@
         <v>74</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>83</v>
@@ -13004,7 +13025,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -13027,13 +13048,13 @@
         <v>74</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>85</v>
+        <v>173</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>152</v>
+        <v>395</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>153</v>
+        <v>396</v>
       </c>
       <c r="M102" s="2"/>
       <c r="N102" s="2"/>
@@ -13084,7 +13105,7 @@
         <v>74</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>154</v>
+        <v>394</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>75</v>
@@ -13096,35 +13117,35 @@
         <v>74</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>74</v>
+        <v>295</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>155</v>
+        <v>296</v>
       </c>
       <c r="AL102" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>74</v>
+        <v>298</v>
       </c>
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
-        <v>128</v>
+        <v>74</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F103" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G103" t="s" s="2">
         <v>74</v>
@@ -13136,17 +13157,15 @@
         <v>74</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>129</v>
+        <v>85</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>130</v>
+        <v>152</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="M103" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="M103" s="2"/>
       <c r="N103" s="2"/>
       <c r="O103" t="s" s="2">
         <v>74</v>
@@ -13183,31 +13202,31 @@
         <v>74</v>
       </c>
       <c r="AA103" t="s" s="2">
-        <v>158</v>
+        <v>74</v>
       </c>
       <c r="AB103" t="s" s="2">
-        <v>159</v>
+        <v>74</v>
       </c>
       <c r="AC103" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD103" t="s" s="2">
-        <v>160</v>
+        <v>74</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG103" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH103" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>134</v>
+        <v>74</v>
       </c>
       <c r="AJ103" t="s" s="2">
         <v>74</v>
@@ -13224,11 +13243,11 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
-        <v>74</v>
+        <v>128</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" t="s" s="2">
@@ -13244,23 +13263,21 @@
         <v>74</v>
       </c>
       <c r="I104" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>186</v>
+        <v>129</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>187</v>
+        <v>130</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>188</v>
+        <v>157</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="N104" t="s" s="2">
-        <v>190</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="N104" s="2"/>
       <c r="O104" t="s" s="2">
         <v>74</v>
       </c>
@@ -13296,19 +13313,19 @@
         <v>74</v>
       </c>
       <c r="AA104" t="s" s="2">
-        <v>74</v>
+        <v>158</v>
       </c>
       <c r="AB104" t="s" s="2">
-        <v>74</v>
+        <v>159</v>
       </c>
       <c r="AC104" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD104" t="s" s="2">
-        <v>74</v>
+        <v>160</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>191</v>
+        <v>161</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>75</v>
@@ -13320,13 +13337,13 @@
         <v>74</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>192</v>
+        <v>74</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>193</v>
+        <v>155</v>
       </c>
       <c r="AL104" t="s" s="2">
         <v>74</v>
@@ -13337,7 +13354,7 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -13348,7 +13365,7 @@
         <v>75</v>
       </c>
       <c r="F105" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G105" t="s" s="2">
         <v>74</v>
@@ -13357,19 +13374,23 @@
         <v>74</v>
       </c>
       <c r="I105" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>85</v>
+        <v>186</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>152</v>
+        <v>187</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="M105" s="2"/>
-      <c r="N105" s="2"/>
+        <v>188</v>
+      </c>
+      <c r="M105" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="N105" t="s" s="2">
+        <v>190</v>
+      </c>
       <c r="O105" t="s" s="2">
         <v>74</v>
       </c>
@@ -13417,25 +13438,25 @@
         <v>74</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>154</v>
+        <v>191</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG105" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH105" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI105" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>74</v>
+        <v>192</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>155</v>
+        <v>193</v>
       </c>
       <c r="AL105" t="s" s="2">
         <v>74</v>
@@ -13446,18 +13467,18 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
-        <v>128</v>
+        <v>74</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F106" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G106" t="s" s="2">
         <v>74</v>
@@ -13469,17 +13490,15 @@
         <v>74</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>129</v>
+        <v>85</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>130</v>
+        <v>152</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="M106" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="M106" s="2"/>
       <c r="N106" s="2"/>
       <c r="O106" t="s" s="2">
         <v>74</v>
@@ -13516,31 +13535,31 @@
         <v>74</v>
       </c>
       <c r="AA106" t="s" s="2">
-        <v>158</v>
+        <v>74</v>
       </c>
       <c r="AB106" t="s" s="2">
-        <v>159</v>
+        <v>74</v>
       </c>
       <c r="AC106" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD106" t="s" s="2">
-        <v>160</v>
+        <v>74</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG106" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH106" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>134</v>
+        <v>74</v>
       </c>
       <c r="AJ106" t="s" s="2">
         <v>74</v>
@@ -13557,18 +13576,18 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
-        <v>74</v>
+        <v>128</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F107" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G107" t="s" s="2">
         <v>74</v>
@@ -13577,23 +13596,21 @@
         <v>74</v>
       </c>
       <c r="I107" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>197</v>
+        <v>130</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>198</v>
+        <v>157</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="N107" t="s" s="2">
-        <v>200</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="N107" s="2"/>
       <c r="O107" t="s" s="2">
         <v>74</v>
       </c>
@@ -13629,37 +13646,37 @@
         <v>74</v>
       </c>
       <c r="AA107" t="s" s="2">
-        <v>74</v>
+        <v>158</v>
       </c>
       <c r="AB107" t="s" s="2">
-        <v>74</v>
+        <v>159</v>
       </c>
       <c r="AC107" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD107" t="s" s="2">
-        <v>74</v>
+        <v>160</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>201</v>
+        <v>161</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG107" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH107" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>202</v>
+        <v>74</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>203</v>
+        <v>155</v>
       </c>
       <c r="AL107" t="s" s="2">
         <v>74</v>
@@ -13670,7 +13687,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -13693,18 +13710,20 @@
         <v>84</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="N108" s="2"/>
+        <v>199</v>
+      </c>
+      <c r="N108" t="s" s="2">
+        <v>200</v>
+      </c>
       <c r="O108" t="s" s="2">
         <v>74</v>
       </c>
@@ -13752,7 +13771,7 @@
         <v>74</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>75</v>
@@ -13767,10 +13786,10 @@
         <v>95</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="AL108" t="s" s="2">
         <v>74</v>
@@ -13781,7 +13800,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -13804,18 +13823,18 @@
         <v>84</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="M109" s="2"/>
-      <c r="N109" t="s" s="2">
-        <v>214</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="M109" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="N109" s="2"/>
       <c r="O109" t="s" s="2">
         <v>74</v>
       </c>
@@ -13824,7 +13843,7 @@
         <v>74</v>
       </c>
       <c r="R109" t="s" s="2">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="S109" t="s" s="2">
         <v>74</v>
@@ -13863,7 +13882,7 @@
         <v>74</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>75</v>
@@ -13878,10 +13897,10 @@
         <v>95</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="AL109" t="s" s="2">
         <v>74</v>
@@ -13892,7 +13911,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -13915,17 +13934,17 @@
         <v>84</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="M110" s="2"/>
       <c r="N110" t="s" s="2">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="O110" t="s" s="2">
         <v>74</v>
@@ -13935,7 +13954,7 @@
         <v>74</v>
       </c>
       <c r="R110" t="s" s="2">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="S110" t="s" s="2">
         <v>74</v>
@@ -13974,7 +13993,7 @@
         <v>74</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>75</v>
@@ -13989,10 +14008,10 @@
         <v>95</v>
       </c>
       <c r="AJ110" t="s" s="2">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="AL110" t="s" s="2">
         <v>74</v>
@@ -14003,7 +14022,7 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -14026,19 +14045,17 @@
         <v>84</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>227</v>
+        <v>85</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="M111" t="s" s="2">
-        <v>230</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="M111" s="2"/>
       <c r="N111" t="s" s="2">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="O111" t="s" s="2">
         <v>74</v>
@@ -14087,7 +14104,7 @@
         <v>74</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>75</v>
@@ -14102,10 +14119,10 @@
         <v>95</v>
       </c>
       <c r="AJ111" t="s" s="2">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="AL111" t="s" s="2">
         <v>74</v>
@@ -14116,7 +14133,7 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -14139,19 +14156,19 @@
         <v>84</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>85</v>
+        <v>227</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="O112" t="s" s="2">
         <v>74</v>
@@ -14200,7 +14217,7 @@
         <v>74</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>75</v>
@@ -14215,10 +14232,10 @@
         <v>95</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="AL112" t="s" s="2">
         <v>74</v>
@@ -14229,7 +14246,7 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -14237,7 +14254,7 @@
       </c>
       <c r="D113" s="2"/>
       <c r="E113" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F113" t="s" s="2">
         <v>83</v>
@@ -14249,21 +14266,23 @@
         <v>74</v>
       </c>
       <c r="I113" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>402</v>
+        <v>85</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>403</v>
+        <v>236</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>404</v>
+        <v>237</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="N113" s="2"/>
+        <v>238</v>
+      </c>
+      <c r="N113" t="s" s="2">
+        <v>239</v>
+      </c>
       <c r="O113" t="s" s="2">
         <v>74</v>
       </c>
@@ -14311,7 +14330,7 @@
         <v>74</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>401</v>
+        <v>240</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>75</v>
@@ -14326,10 +14345,10 @@
         <v>95</v>
       </c>
       <c r="AJ113" t="s" s="2">
-        <v>406</v>
+        <v>241</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>74</v>
+        <v>242</v>
       </c>
       <c r="AL113" t="s" s="2">
         <v>74</v>
@@ -14340,7 +14359,7 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -14363,16 +14382,16 @@
         <v>74</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="N114" s="2"/>
       <c r="O114" t="s" s="2">
@@ -14422,7 +14441,7 @@
         <v>74</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>75</v>
@@ -14437,7 +14456,7 @@
         <v>95</v>
       </c>
       <c r="AJ114" t="s" s="2">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="AK114" t="s" s="2">
         <v>74</v>
@@ -14451,7 +14470,7 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -14459,7 +14478,7 @@
       </c>
       <c r="D115" s="2"/>
       <c r="E115" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F115" t="s" s="2">
         <v>83</v>
@@ -14474,15 +14493,17 @@
         <v>74</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>85</v>
+        <v>415</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>152</v>
+        <v>416</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="M115" s="2"/>
+        <v>417</v>
+      </c>
+      <c r="M115" t="s" s="2">
+        <v>412</v>
+      </c>
       <c r="N115" s="2"/>
       <c r="O115" t="s" s="2">
         <v>74</v>
@@ -14531,7 +14552,7 @@
         <v>74</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>154</v>
+        <v>414</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>75</v>
@@ -14543,13 +14564,13 @@
         <v>74</v>
       </c>
       <c r="AI115" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ115" t="s" s="2">
-        <v>74</v>
+        <v>413</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>155</v>
+        <v>74</v>
       </c>
       <c r="AL115" t="s" s="2">
         <v>74</v>
@@ -14560,18 +14581,18 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
-        <v>128</v>
+        <v>74</v>
       </c>
       <c r="D116" s="2"/>
       <c r="E116" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F116" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G116" t="s" s="2">
         <v>74</v>
@@ -14583,17 +14604,15 @@
         <v>74</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>129</v>
+        <v>85</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>130</v>
+        <v>152</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="M116" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="M116" s="2"/>
       <c r="N116" s="2"/>
       <c r="O116" t="s" s="2">
         <v>74</v>
@@ -14630,31 +14649,31 @@
         <v>74</v>
       </c>
       <c r="AA116" t="s" s="2">
-        <v>158</v>
+        <v>74</v>
       </c>
       <c r="AB116" t="s" s="2">
-        <v>159</v>
+        <v>74</v>
       </c>
       <c r="AC116" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD116" t="s" s="2">
-        <v>160</v>
+        <v>74</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG116" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH116" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI116" t="s" s="2">
-        <v>134</v>
+        <v>74</v>
       </c>
       <c r="AJ116" t="s" s="2">
         <v>74</v>
@@ -14671,18 +14690,18 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
-        <v>74</v>
+        <v>128</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F117" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G117" t="s" s="2">
         <v>74</v>
@@ -14691,23 +14710,21 @@
         <v>74</v>
       </c>
       <c r="I117" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>402</v>
+        <v>129</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>414</v>
+        <v>130</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>415</v>
+        <v>157</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="N117" t="s" s="2">
-        <v>417</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="N117" s="2"/>
       <c r="O117" t="s" s="2">
         <v>74</v>
       </c>
@@ -14743,37 +14760,37 @@
         <v>74</v>
       </c>
       <c r="AA117" t="s" s="2">
-        <v>74</v>
+        <v>158</v>
       </c>
       <c r="AB117" t="s" s="2">
-        <v>74</v>
+        <v>159</v>
       </c>
       <c r="AC117" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD117" t="s" s="2">
-        <v>74</v>
+        <v>160</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>418</v>
+        <v>161</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG117" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH117" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI117" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AJ117" t="s" s="2">
-        <v>419</v>
+        <v>74</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>74</v>
+        <v>155</v>
       </c>
       <c r="AL117" t="s" s="2">
         <v>74</v>
@@ -14792,7 +14809,7 @@
       </c>
       <c r="D118" s="2"/>
       <c r="E118" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F118" t="s" s="2">
         <v>83</v>
@@ -14807,7 +14824,7 @@
         <v>84</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>103</v>
+        <v>409</v>
       </c>
       <c r="K118" t="s" s="2">
         <v>421</v>
@@ -14815,9 +14832,11 @@
       <c r="L118" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="M118" s="2"/>
+      <c r="M118" t="s" s="2">
+        <v>423</v>
+      </c>
       <c r="N118" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="O118" t="s" s="2">
         <v>74</v>
@@ -14842,13 +14861,13 @@
         <v>74</v>
       </c>
       <c r="W118" t="s" s="2">
-        <v>167</v>
+        <v>74</v>
       </c>
       <c r="X118" t="s" s="2">
-        <v>423</v>
+        <v>74</v>
       </c>
       <c r="Y118" t="s" s="2">
-        <v>424</v>
+        <v>74</v>
       </c>
       <c r="Z118" t="s" s="2">
         <v>74</v>
@@ -14906,7 +14925,7 @@
         <v>75</v>
       </c>
       <c r="F119" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G119" t="s" s="2">
         <v>74</v>
@@ -14915,10 +14934,10 @@
         <v>74</v>
       </c>
       <c r="I119" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="K119" t="s" s="2">
         <v>428</v>
@@ -14927,7 +14946,9 @@
         <v>429</v>
       </c>
       <c r="M119" s="2"/>
-      <c r="N119" s="2"/>
+      <c r="N119" t="s" s="2">
+        <v>430</v>
+      </c>
       <c r="O119" t="s" s="2">
         <v>74</v>
       </c>
@@ -14951,13 +14972,13 @@
         <v>74</v>
       </c>
       <c r="W119" t="s" s="2">
-        <v>74</v>
+        <v>167</v>
       </c>
       <c r="X119" t="s" s="2">
-        <v>74</v>
+        <v>430</v>
       </c>
       <c r="Y119" t="s" s="2">
-        <v>74</v>
+        <v>431</v>
       </c>
       <c r="Z119" t="s" s="2">
         <v>74</v>
@@ -14975,13 +14996,13 @@
         <v>74</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG119" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH119" t="s" s="2">
         <v>74</v>
@@ -14990,10 +15011,10 @@
         <v>95</v>
       </c>
       <c r="AJ119" t="s" s="2">
-        <v>332</v>
+        <v>433</v>
       </c>
       <c r="AK119" t="s" s="2">
-        <v>333</v>
+        <v>74</v>
       </c>
       <c r="AL119" t="s" s="2">
         <v>74</v>
@@ -15004,7 +15025,7 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -15012,10 +15033,10 @@
       </c>
       <c r="D120" s="2"/>
       <c r="E120" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F120" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G120" t="s" s="2">
         <v>74</v>
@@ -15024,20 +15045,18 @@
         <v>74</v>
       </c>
       <c r="I120" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>408</v>
+        <v>74</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="M120" t="s" s="2">
-        <v>405</v>
-      </c>
+        <v>436</v>
+      </c>
+      <c r="M120" s="2"/>
       <c r="N120" s="2"/>
       <c r="O120" t="s" s="2">
         <v>74</v>
@@ -15086,13 +15105,13 @@
         <v>74</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG120" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH120" t="s" s="2">
         <v>74</v>
@@ -15101,10 +15120,10 @@
         <v>95</v>
       </c>
       <c r="AJ120" t="s" s="2">
-        <v>406</v>
+        <v>332</v>
       </c>
       <c r="AK120" t="s" s="2">
-        <v>74</v>
+        <v>333</v>
       </c>
       <c r="AL120" t="s" s="2">
         <v>74</v>
@@ -15115,7 +15134,7 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -15123,7 +15142,7 @@
       </c>
       <c r="D121" s="2"/>
       <c r="E121" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F121" t="s" s="2">
         <v>83</v>
@@ -15135,18 +15154,20 @@
         <v>74</v>
       </c>
       <c r="I121" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>85</v>
+        <v>415</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>152</v>
+        <v>438</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="M121" s="2"/>
+        <v>439</v>
+      </c>
+      <c r="M121" t="s" s="2">
+        <v>412</v>
+      </c>
       <c r="N121" s="2"/>
       <c r="O121" t="s" s="2">
         <v>74</v>
@@ -15195,7 +15216,7 @@
         <v>74</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>154</v>
+        <v>437</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>75</v>
@@ -15207,13 +15228,13 @@
         <v>74</v>
       </c>
       <c r="AI121" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ121" t="s" s="2">
-        <v>74</v>
+        <v>413</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>155</v>
+        <v>74</v>
       </c>
       <c r="AL121" t="s" s="2">
         <v>74</v>
@@ -15224,18 +15245,18 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
-        <v>128</v>
+        <v>74</v>
       </c>
       <c r="D122" s="2"/>
       <c r="E122" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F122" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G122" t="s" s="2">
         <v>74</v>
@@ -15247,17 +15268,15 @@
         <v>74</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>129</v>
+        <v>85</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>130</v>
+        <v>152</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="M122" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="M122" s="2"/>
       <c r="N122" s="2"/>
       <c r="O122" t="s" s="2">
         <v>74</v>
@@ -15294,31 +15313,31 @@
         <v>74</v>
       </c>
       <c r="AA122" t="s" s="2">
-        <v>158</v>
+        <v>74</v>
       </c>
       <c r="AB122" t="s" s="2">
-        <v>159</v>
+        <v>74</v>
       </c>
       <c r="AC122" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD122" t="s" s="2">
-        <v>160</v>
+        <v>74</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG122" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH122" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI122" t="s" s="2">
-        <v>134</v>
+        <v>74</v>
       </c>
       <c r="AJ122" t="s" s="2">
         <v>74</v>
@@ -15335,18 +15354,18 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
-        <v>74</v>
+        <v>128</v>
       </c>
       <c r="D123" s="2"/>
       <c r="E123" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F123" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G123" t="s" s="2">
         <v>74</v>
@@ -15355,23 +15374,21 @@
         <v>74</v>
       </c>
       <c r="I123" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>402</v>
+        <v>129</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>414</v>
+        <v>130</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>415</v>
+        <v>157</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="N123" t="s" s="2">
-        <v>417</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="N123" s="2"/>
       <c r="O123" t="s" s="2">
         <v>74</v>
       </c>
@@ -15407,37 +15424,37 @@
         <v>74</v>
       </c>
       <c r="AA123" t="s" s="2">
-        <v>74</v>
+        <v>158</v>
       </c>
       <c r="AB123" t="s" s="2">
-        <v>74</v>
+        <v>159</v>
       </c>
       <c r="AC123" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD123" t="s" s="2">
-        <v>74</v>
+        <v>160</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>418</v>
+        <v>161</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG123" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH123" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI123" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AJ123" t="s" s="2">
-        <v>419</v>
+        <v>74</v>
       </c>
       <c r="AK123" t="s" s="2">
-        <v>74</v>
+        <v>155</v>
       </c>
       <c r="AL123" t="s" s="2">
         <v>74</v>
@@ -15448,7 +15465,7 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -15456,7 +15473,7 @@
       </c>
       <c r="D124" s="2"/>
       <c r="E124" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F124" t="s" s="2">
         <v>83</v>
@@ -15471,7 +15488,7 @@
         <v>84</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>103</v>
+        <v>409</v>
       </c>
       <c r="K124" t="s" s="2">
         <v>421</v>
@@ -15479,9 +15496,11 @@
       <c r="L124" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="M124" s="2"/>
+      <c r="M124" t="s" s="2">
+        <v>423</v>
+      </c>
       <c r="N124" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="O124" t="s" s="2">
         <v>74</v>
@@ -15506,13 +15525,13 @@
         <v>74</v>
       </c>
       <c r="W124" t="s" s="2">
-        <v>167</v>
+        <v>74</v>
       </c>
       <c r="X124" t="s" s="2">
-        <v>423</v>
+        <v>74</v>
       </c>
       <c r="Y124" t="s" s="2">
-        <v>424</v>
+        <v>74</v>
       </c>
       <c r="Z124" t="s" s="2">
         <v>74</v>
@@ -15559,7 +15578,7 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -15567,7 +15586,7 @@
       </c>
       <c r="D125" s="2"/>
       <c r="E125" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F125" t="s" s="2">
         <v>83</v>
@@ -15582,18 +15601,18 @@
         <v>84</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>408</v>
+        <v>103</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="M125" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="N125" s="2"/>
+        <v>429</v>
+      </c>
+      <c r="M125" s="2"/>
+      <c r="N125" t="s" s="2">
+        <v>430</v>
+      </c>
       <c r="O125" t="s" s="2">
         <v>74</v>
       </c>
@@ -15617,13 +15636,13 @@
         <v>74</v>
       </c>
       <c r="W125" t="s" s="2">
-        <v>74</v>
+        <v>167</v>
       </c>
       <c r="X125" t="s" s="2">
-        <v>74</v>
+        <v>430</v>
       </c>
       <c r="Y125" t="s" s="2">
-        <v>74</v>
+        <v>431</v>
       </c>
       <c r="Z125" t="s" s="2">
         <v>74</v>
@@ -15641,7 +15660,7 @@
         <v>74</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>75</v>
@@ -15656,7 +15675,7 @@
         <v>95</v>
       </c>
       <c r="AJ125" t="s" s="2">
-        <v>406</v>
+        <v>433</v>
       </c>
       <c r="AK125" t="s" s="2">
         <v>74</v>
@@ -15670,7 +15689,7 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -15678,7 +15697,7 @@
       </c>
       <c r="D126" s="2"/>
       <c r="E126" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F126" t="s" s="2">
         <v>83</v>
@@ -15690,18 +15709,20 @@
         <v>74</v>
       </c>
       <c r="I126" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>85</v>
+        <v>415</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>152</v>
+        <v>445</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="M126" s="2"/>
+        <v>446</v>
+      </c>
+      <c r="M126" t="s" s="2">
+        <v>412</v>
+      </c>
       <c r="N126" s="2"/>
       <c r="O126" t="s" s="2">
         <v>74</v>
@@ -15750,7 +15771,7 @@
         <v>74</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>154</v>
+        <v>444</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>75</v>
@@ -15762,13 +15783,13 @@
         <v>74</v>
       </c>
       <c r="AI126" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ126" t="s" s="2">
-        <v>74</v>
+        <v>413</v>
       </c>
       <c r="AK126" t="s" s="2">
-        <v>155</v>
+        <v>74</v>
       </c>
       <c r="AL126" t="s" s="2">
         <v>74</v>
@@ -15779,18 +15800,18 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
-        <v>128</v>
+        <v>74</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F127" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G127" t="s" s="2">
         <v>74</v>
@@ -15802,17 +15823,15 @@
         <v>74</v>
       </c>
       <c r="J127" t="s" s="2">
-        <v>129</v>
+        <v>85</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>130</v>
+        <v>152</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="M127" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="M127" s="2"/>
       <c r="N127" s="2"/>
       <c r="O127" t="s" s="2">
         <v>74</v>
@@ -15849,31 +15868,31 @@
         <v>74</v>
       </c>
       <c r="AA127" t="s" s="2">
-        <v>158</v>
+        <v>74</v>
       </c>
       <c r="AB127" t="s" s="2">
-        <v>159</v>
+        <v>74</v>
       </c>
       <c r="AC127" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD127" t="s" s="2">
-        <v>160</v>
+        <v>74</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG127" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH127" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI127" t="s" s="2">
-        <v>134</v>
+        <v>74</v>
       </c>
       <c r="AJ127" t="s" s="2">
         <v>74</v>
@@ -15890,18 +15909,18 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
-        <v>74</v>
+        <v>128</v>
       </c>
       <c r="D128" s="2"/>
       <c r="E128" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F128" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G128" t="s" s="2">
         <v>74</v>
@@ -15910,23 +15929,21 @@
         <v>74</v>
       </c>
       <c r="I128" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>402</v>
+        <v>129</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>414</v>
+        <v>130</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>415</v>
+        <v>157</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="N128" t="s" s="2">
-        <v>417</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="N128" s="2"/>
       <c r="O128" t="s" s="2">
         <v>74</v>
       </c>
@@ -15962,37 +15979,37 @@
         <v>74</v>
       </c>
       <c r="AA128" t="s" s="2">
-        <v>74</v>
+        <v>158</v>
       </c>
       <c r="AB128" t="s" s="2">
-        <v>74</v>
+        <v>159</v>
       </c>
       <c r="AC128" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD128" t="s" s="2">
-        <v>74</v>
+        <v>160</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>418</v>
+        <v>161</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG128" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH128" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI128" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AJ128" t="s" s="2">
-        <v>419</v>
+        <v>74</v>
       </c>
       <c r="AK128" t="s" s="2">
-        <v>74</v>
+        <v>155</v>
       </c>
       <c r="AL128" t="s" s="2">
         <v>74</v>
@@ -16003,7 +16020,7 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
@@ -16011,7 +16028,7 @@
       </c>
       <c r="D129" s="2"/>
       <c r="E129" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F129" t="s" s="2">
         <v>83</v>
@@ -16026,7 +16043,7 @@
         <v>84</v>
       </c>
       <c r="J129" t="s" s="2">
-        <v>103</v>
+        <v>409</v>
       </c>
       <c r="K129" t="s" s="2">
         <v>421</v>
@@ -16034,9 +16051,11 @@
       <c r="L129" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="M129" s="2"/>
+      <c r="M129" t="s" s="2">
+        <v>423</v>
+      </c>
       <c r="N129" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="O129" t="s" s="2">
         <v>74</v>
@@ -16061,13 +16080,13 @@
         <v>74</v>
       </c>
       <c r="W129" t="s" s="2">
-        <v>167</v>
+        <v>74</v>
       </c>
       <c r="X129" t="s" s="2">
-        <v>423</v>
+        <v>74</v>
       </c>
       <c r="Y129" t="s" s="2">
-        <v>424</v>
+        <v>74</v>
       </c>
       <c r="Z129" t="s" s="2">
         <v>74</v>
@@ -16114,7 +16133,7 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
@@ -16134,21 +16153,21 @@
         <v>74</v>
       </c>
       <c r="I130" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J130" t="s" s="2">
-        <v>445</v>
+        <v>103</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>446</v>
+        <v>428</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="M130" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="N130" s="2"/>
+        <v>429</v>
+      </c>
+      <c r="M130" s="2"/>
+      <c r="N130" t="s" s="2">
+        <v>430</v>
+      </c>
       <c r="O130" t="s" s="2">
         <v>74</v>
       </c>
@@ -16172,13 +16191,13 @@
         <v>74</v>
       </c>
       <c r="W130" t="s" s="2">
-        <v>74</v>
+        <v>167</v>
       </c>
       <c r="X130" t="s" s="2">
-        <v>74</v>
+        <v>430</v>
       </c>
       <c r="Y130" t="s" s="2">
-        <v>74</v>
+        <v>431</v>
       </c>
       <c r="Z130" t="s" s="2">
         <v>74</v>
@@ -16196,7 +16215,7 @@
         <v>74</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>75</v>
@@ -16211,7 +16230,7 @@
         <v>95</v>
       </c>
       <c r="AJ130" t="s" s="2">
-        <v>74</v>
+        <v>433</v>
       </c>
       <c r="AK130" t="s" s="2">
         <v>74</v>
@@ -16225,7 +16244,7 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
@@ -16248,15 +16267,17 @@
         <v>74</v>
       </c>
       <c r="J131" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="M131" s="2"/>
+        <v>454</v>
+      </c>
+      <c r="M131" t="s" s="2">
+        <v>455</v>
+      </c>
       <c r="N131" s="2"/>
       <c r="O131" t="s" s="2">
         <v>74</v>
@@ -16305,13 +16326,13 @@
         <v>74</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG131" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH131" t="s" s="2">
         <v>74</v>
@@ -16320,20 +16341,129 @@
         <v>95</v>
       </c>
       <c r="AJ131" t="s" s="2">
-        <v>453</v>
+        <v>74</v>
       </c>
       <c r="AK131" t="s" s="2">
-        <v>454</v>
+        <v>74</v>
       </c>
       <c r="AL131" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM131" t="s" s="2">
-        <v>455</v>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="132" hidden="true">
+      <c r="A132" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="B132" s="2"/>
+      <c r="C132" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D132" s="2"/>
+      <c r="E132" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F132" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G132" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H132" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I132" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J132" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="K132" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="L132" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="M132" s="2"/>
+      <c r="N132" s="2"/>
+      <c r="O132" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P132" s="2"/>
+      <c r="Q132" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R132" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S132" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T132" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U132" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V132" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W132" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X132" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y132" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z132" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA132" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB132" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC132" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD132" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE132" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="AF132" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG132" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH132" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI132" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ132" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="AK132" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="AL132" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM132" t="s" s="2">
+        <v>462</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM131">
+  <autoFilter ref="A1:AM132">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -16343,7 +16473,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI130">
+  <conditionalFormatting sqref="A2:AI131">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-openimis-invoice.xlsx
+++ b/StructureDefinition-openimis-invoice.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-15T18:47:56+00:00</t>
+    <t>2021-11-15T18:48:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
